--- a/src/main/resources/static/upload/excelData.xlsx
+++ b/src/main/resources/static/upload/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB3DC2-DB66-B94E-900F-55978BFBCE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A480E63E-8D30-9541-93B7-566050E57A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{C6BD06DB-09F8-A149-B39E-38ADDF819531}"/>
   </bookViews>
